--- a/data/jjinx.xlsx
+++ b/data/jjinx.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lym23\Crawling_Project\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84504BA7-A3C1-4285-95C5-CA2C5B086D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -846,9 +852,6 @@
   </si>
   <si>
     <t>2024.05.31 00:42</t>
-  </si>
-  <si>
-    <t>2024.05.31 00:12</t>
   </si>
   <si>
     <t>7일 이화영 전 경기도 평화부지사가 2019~2020년 800만 달러 상당 대북송금 혐의(외국환거래법 위반) 등으로 징역 9년6개월을 선고받으면서 당시 경기도지사를 지낸 이재명 더불어민주당 대표에 대한 수사도 급물살을 탈 것으로 전망된다. 검찰은 이 대표가 유력 정치인으로 발돋움하기 위해 김성태 전 쌍방울그룹 회장, 이 전 부지사와 함께 대북송금에 관여한 것으로 보고 있다.
@@ -1991,16 +1994,20 @@
 다만 18개 국회 상임위원장을 배분하는 원 구성을 두고 여야가 대치하면서 상임위원장은 공란으로 뒀다. 이날 오전 민주당 초선 의원 59명은 성명서를 내고 “노골적인 지연 전술을 끊어내기 위해 6월 7일 원 구성 시한을 못 박아야 한다”고 여당을 압박했다.
 손국희·강보현 기자 9key@joongang.co.kr</t>
   </si>
+  <si>
+    <t>2024.05.31 00:12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2008,7 +2015,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2018,6 +2025,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2067,18 +2081,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2116,7 +2138,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2150,6 +2172,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2184,9 +2207,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2359,20 +2383,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.7109375" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="5047.7109375" customWidth="1"/>
+    <col min="1" max="1" width="53.75" customWidth="1"/>
+    <col min="2" max="2" width="44.75" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="5047.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2386,7 +2412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2397,10 +2423,10 @@
         <v>158</v>
       </c>
       <c r="D2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2411,10 +2437,10 @@
         <v>159</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2425,10 +2451,10 @@
         <v>160</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2439,10 +2465,10 @@
         <v>161</v>
       </c>
       <c r="D5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2453,10 +2479,10 @@
         <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2467,10 +2493,10 @@
         <v>163</v>
       </c>
       <c r="D7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2481,10 +2507,10 @@
         <v>163</v>
       </c>
       <c r="D8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2495,10 +2521,10 @@
         <v>164</v>
       </c>
       <c r="D9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2509,10 +2535,10 @@
         <v>165</v>
       </c>
       <c r="D10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2523,10 +2549,10 @@
         <v>166</v>
       </c>
       <c r="D11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2537,10 +2563,10 @@
         <v>167</v>
       </c>
       <c r="D12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2551,10 +2577,10 @@
         <v>168</v>
       </c>
       <c r="D13" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2565,10 +2591,10 @@
         <v>169</v>
       </c>
       <c r="D14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2579,10 +2605,10 @@
         <v>170</v>
       </c>
       <c r="D15" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2593,10 +2619,10 @@
         <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2607,10 +2633,10 @@
         <v>171</v>
       </c>
       <c r="D17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2621,10 +2647,10 @@
         <v>172</v>
       </c>
       <c r="D18" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2635,10 +2661,10 @@
         <v>173</v>
       </c>
       <c r="D19" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2649,10 +2675,10 @@
         <v>174</v>
       </c>
       <c r="D20" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2663,10 +2689,10 @@
         <v>175</v>
       </c>
       <c r="D21" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2677,10 +2703,10 @@
         <v>176</v>
       </c>
       <c r="D22" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2691,10 +2717,10 @@
         <v>177</v>
       </c>
       <c r="D23" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2705,10 +2731,10 @@
         <v>178</v>
       </c>
       <c r="D24" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2719,10 +2745,10 @@
         <v>179</v>
       </c>
       <c r="D25" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2733,10 +2759,10 @@
         <v>180</v>
       </c>
       <c r="D26" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2747,10 +2773,10 @@
         <v>181</v>
       </c>
       <c r="D27" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -2761,10 +2787,10 @@
         <v>181</v>
       </c>
       <c r="D28" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -2775,10 +2801,10 @@
         <v>181</v>
       </c>
       <c r="D29" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -2789,10 +2815,10 @@
         <v>181</v>
       </c>
       <c r="D30" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2803,10 +2829,10 @@
         <v>182</v>
       </c>
       <c r="D31" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -2817,10 +2843,10 @@
         <v>182</v>
       </c>
       <c r="D32" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2831,10 +2857,10 @@
         <v>182</v>
       </c>
       <c r="D33" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2845,10 +2871,10 @@
         <v>183</v>
       </c>
       <c r="D34" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2859,10 +2885,10 @@
         <v>184</v>
       </c>
       <c r="D35" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2873,10 +2899,10 @@
         <v>185</v>
       </c>
       <c r="D36" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2887,10 +2913,10 @@
         <v>186</v>
       </c>
       <c r="D37" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2901,10 +2927,10 @@
         <v>187</v>
       </c>
       <c r="D38" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2915,10 +2941,10 @@
         <v>188</v>
       </c>
       <c r="D39" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2929,10 +2955,10 @@
         <v>189</v>
       </c>
       <c r="D40" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -2943,10 +2969,10 @@
         <v>190</v>
       </c>
       <c r="D41" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2957,10 +2983,10 @@
         <v>191</v>
       </c>
       <c r="D42" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2971,10 +2997,10 @@
         <v>192</v>
       </c>
       <c r="D43" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -2985,10 +3011,10 @@
         <v>193</v>
       </c>
       <c r="D44" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -2999,10 +3025,10 @@
         <v>194</v>
       </c>
       <c r="D45" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -3013,10 +3039,10 @@
         <v>195</v>
       </c>
       <c r="D46" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -3027,10 +3053,10 @@
         <v>196</v>
       </c>
       <c r="D47" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -3041,10 +3067,10 @@
         <v>197</v>
       </c>
       <c r="D48" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -3055,10 +3081,10 @@
         <v>198</v>
       </c>
       <c r="D49" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -3069,10 +3095,10 @@
         <v>199</v>
       </c>
       <c r="D50" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -3083,10 +3109,10 @@
         <v>200</v>
       </c>
       <c r="D51" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -3097,10 +3123,10 @@
         <v>201</v>
       </c>
       <c r="D52" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -3111,10 +3137,10 @@
         <v>202</v>
       </c>
       <c r="D53" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -3125,10 +3151,10 @@
         <v>203</v>
       </c>
       <c r="D54" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -3139,10 +3165,10 @@
         <v>204</v>
       </c>
       <c r="D55" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -3153,10 +3179,10 @@
         <v>205</v>
       </c>
       <c r="D56" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -3167,10 +3193,10 @@
         <v>206</v>
       </c>
       <c r="D57" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -3181,10 +3207,10 @@
         <v>207</v>
       </c>
       <c r="D58" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -3195,10 +3221,10 @@
         <v>208</v>
       </c>
       <c r="D59" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -3209,10 +3235,10 @@
         <v>209</v>
       </c>
       <c r="D60" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -3223,10 +3249,10 @@
         <v>210</v>
       </c>
       <c r="D61" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -3237,10 +3263,10 @@
         <v>211</v>
       </c>
       <c r="D62" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -3251,10 +3277,10 @@
         <v>212</v>
       </c>
       <c r="D63" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -3265,10 +3291,10 @@
         <v>213</v>
       </c>
       <c r="D64" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -3279,10 +3305,10 @@
         <v>214</v>
       </c>
       <c r="D65" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -3293,10 +3319,10 @@
         <v>215</v>
       </c>
       <c r="D66" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -3307,10 +3333,10 @@
         <v>216</v>
       </c>
       <c r="D67" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -3321,10 +3347,10 @@
         <v>217</v>
       </c>
       <c r="D68" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -3335,10 +3361,10 @@
         <v>218</v>
       </c>
       <c r="D69" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -3349,10 +3375,10 @@
         <v>219</v>
       </c>
       <c r="D70" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -3363,10 +3389,10 @@
         <v>220</v>
       </c>
       <c r="D71" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -3377,10 +3403,10 @@
         <v>221</v>
       </c>
       <c r="D72" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -3391,10 +3417,10 @@
         <v>222</v>
       </c>
       <c r="D73" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -3405,10 +3431,10 @@
         <v>223</v>
       </c>
       <c r="D74" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -3419,10 +3445,10 @@
         <v>224</v>
       </c>
       <c r="D75" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -3433,10 +3459,10 @@
         <v>224</v>
       </c>
       <c r="D76" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -3447,10 +3473,10 @@
         <v>225</v>
       </c>
       <c r="D77" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -3458,91 +3484,92 @@
         <v>157</v>
       </c>
       <c r="C78" t="s">
-        <v>226</v>
+        <v>303</v>
       </c>
       <c r="D78" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
-    <hyperlink ref="B19" r:id="rId18"/>
-    <hyperlink ref="B20" r:id="rId19"/>
-    <hyperlink ref="B21" r:id="rId20"/>
-    <hyperlink ref="B22" r:id="rId21"/>
-    <hyperlink ref="B23" r:id="rId22"/>
-    <hyperlink ref="B24" r:id="rId23"/>
-    <hyperlink ref="B25" r:id="rId24"/>
-    <hyperlink ref="B26" r:id="rId25"/>
-    <hyperlink ref="B27" r:id="rId26"/>
-    <hyperlink ref="B28" r:id="rId27"/>
-    <hyperlink ref="B29" r:id="rId28"/>
-    <hyperlink ref="B30" r:id="rId29"/>
-    <hyperlink ref="B31" r:id="rId30"/>
-    <hyperlink ref="B32" r:id="rId31"/>
-    <hyperlink ref="B33" r:id="rId32"/>
-    <hyperlink ref="B34" r:id="rId33"/>
-    <hyperlink ref="B35" r:id="rId34"/>
-    <hyperlink ref="B36" r:id="rId35"/>
-    <hyperlink ref="B37" r:id="rId36"/>
-    <hyperlink ref="B38" r:id="rId37"/>
-    <hyperlink ref="B39" r:id="rId38"/>
-    <hyperlink ref="B40" r:id="rId39"/>
-    <hyperlink ref="B41" r:id="rId40"/>
-    <hyperlink ref="B42" r:id="rId41"/>
-    <hyperlink ref="B43" r:id="rId42"/>
-    <hyperlink ref="B44" r:id="rId43"/>
-    <hyperlink ref="B45" r:id="rId44"/>
-    <hyperlink ref="B46" r:id="rId45"/>
-    <hyperlink ref="B47" r:id="rId46"/>
-    <hyperlink ref="B48" r:id="rId47"/>
-    <hyperlink ref="B49" r:id="rId48"/>
-    <hyperlink ref="B50" r:id="rId49"/>
-    <hyperlink ref="B51" r:id="rId50"/>
-    <hyperlink ref="B52" r:id="rId51"/>
-    <hyperlink ref="B53" r:id="rId52"/>
-    <hyperlink ref="B54" r:id="rId53"/>
-    <hyperlink ref="B55" r:id="rId54"/>
-    <hyperlink ref="B56" r:id="rId55"/>
-    <hyperlink ref="B57" r:id="rId56"/>
-    <hyperlink ref="B58" r:id="rId57"/>
-    <hyperlink ref="B59" r:id="rId58"/>
-    <hyperlink ref="B60" r:id="rId59"/>
-    <hyperlink ref="B61" r:id="rId60"/>
-    <hyperlink ref="B62" r:id="rId61"/>
-    <hyperlink ref="B63" r:id="rId62"/>
-    <hyperlink ref="B64" r:id="rId63"/>
-    <hyperlink ref="B65" r:id="rId64"/>
-    <hyperlink ref="B66" r:id="rId65"/>
-    <hyperlink ref="B67" r:id="rId66"/>
-    <hyperlink ref="B68" r:id="rId67"/>
-    <hyperlink ref="B69" r:id="rId68"/>
-    <hyperlink ref="B70" r:id="rId69"/>
-    <hyperlink ref="B71" r:id="rId70"/>
-    <hyperlink ref="B72" r:id="rId71"/>
-    <hyperlink ref="B73" r:id="rId72"/>
-    <hyperlink ref="B74" r:id="rId73"/>
-    <hyperlink ref="B75" r:id="rId74"/>
-    <hyperlink ref="B76" r:id="rId75"/>
-    <hyperlink ref="B77" r:id="rId76"/>
-    <hyperlink ref="B78" r:id="rId77"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
